--- a/PHP/Sauvegarde/Burndown-Chart-Excel-Template-FR_.xlsx
+++ b/PHP/Sauvegarde/Burndown-Chart-Excel-Template-FR_.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2102636\Documents\Missions\Mission Nancy Guillaume\Projet SAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BackEnd\PHP\Sauvegarde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8FFE79-9502-4071-9FD4-05EB2D19E6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Vue d'ensemble" sheetId="1" r:id="rId1"/>
@@ -21,10 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backlog!$A$5:$A$201</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Backlog!$H:$H</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,13 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Sprint ID</t>
   </si>
@@ -155,15 +148,6 @@
     <t>Membres de l'équipe</t>
   </si>
   <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
     <t>Statut</t>
   </si>
   <si>
@@ -208,11 +192,20 @@
   <si>
     <t>Colonne auxiliaire</t>
   </si>
+  <si>
+    <t>Amaury</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-407]d/\ mmm/\ yy;@"/>
@@ -554,6 +547,243 @@
   <dxfs count="47">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -566,7 +796,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -597,7 +826,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -633,7 +861,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -663,7 +890,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -695,7 +921,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -737,30 +962,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -770,30 +971,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -809,33 +986,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -850,33 +1008,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -891,36 +1030,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -932,142 +1041,12 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1385,8 +1364,8 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
-    <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Tabellenformat 1" pivot="0" count="0"/>
+    <tableStyle name="Tabellenformat 2" pivot="0" count="1">
       <tableStyleElement type="firstRowStripe" dxfId="46"/>
     </tableStyle>
   </tableStyles>
@@ -1569,37 +1548,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,37 +1694,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.8</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.6</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.4</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.200000000000003</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.799999999999997</c:v>
+                  <c:v>-0.80000000000000071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>-1.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.399999999999999</c:v>
+                  <c:v>-2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1999999999999957</c:v>
+                  <c:v>-3.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,37 +1841,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,6 +1933,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2188,6 +2168,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2195,7 +2176,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2848,9 +2828,17 @@
             </a:rPr>
             <a:t>Encodez ici les donnés clés du projet N’oubliez pas de vérifier que les informations sont constamment à jour !</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
@@ -2865,6 +2853,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Informations générales :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
@@ -2881,6 +2873,10 @@
             </a:rPr>
             <a:t>Date de début</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
@@ -2895,6 +2891,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Durée du sprint (précisez le nombre brut de jours)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
@@ -2911,6 +2911,10 @@
             </a:rPr>
             <a:t>Jours de vacances pendant le sprint</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
@@ -2925,6 +2929,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Taille de votre équipe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
@@ -2941,6 +2949,10 @@
             </a:rPr>
             <a:t>Charge de travail maximale demandée par l’équipe</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
@@ -2955,6 +2967,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Heures de travail quotidiennes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
@@ -3096,6 +3112,10 @@
             </a:rPr>
             <a:t>Introduisez ici les noms des membres de votre équipe :</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
@@ -3235,6 +3255,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Vous pouvez définir le statut des tâches ici </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US"/>
@@ -4199,39 +4223,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A4:B11" totalsRowShown="0">
-  <autoFilter ref="A4:B11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A4:B11" totalsRowShown="0">
+  <autoFilter ref="A4:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Champ" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Valeurs" dataDxfId="44"/>
+    <tableColumn id="1" name="Champ" dataDxfId="45"/>
+    <tableColumn id="2" name="Valeurs" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle4" displayName="Tabelle4" ref="D5:E11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D5:E11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Spalte1" headerRowDxfId="39" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spalte2" headerRowDxfId="37" dataDxfId="36"/>
+    <tableColumn id="1" name="Spalte1" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="2" name="Spalte2" headerRowDxfId="37" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle5" displayName="Tabelle5" ref="A21:A33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A21:A33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A21:A33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A21:A33"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Membres de l'équipe" dataDxfId="33"/>
+    <tableColumn id="1" name="Membres de l'équipe" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Backlog" displayName="Backlog" ref="A5:I160" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
-  <autoFilter ref="A5:I159" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Backlog" displayName="Backlog" ref="A5:I160" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
+  <autoFilter ref="A5:I159">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -4239,17 +4263,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint ID" totalsRowLabel="Storypoints" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Backlog Item ID" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="StoryPoints" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Story" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Assigné à " dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Statut" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Terminé le " dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Jour de sprint" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" name="Sprint ID" totalsRowLabel="Storypoints" dataDxfId="29" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Backlog Item ID" dataDxfId="28" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="StoryPoints" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Story" dataDxfId="26" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="Assigné à " dataDxfId="25" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Statut" dataDxfId="24" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="Terminé le " dataDxfId="23" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Jour de sprint" dataDxfId="22" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Colonne auxiliaire" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="9" name="Colonne auxiliaire" dataDxfId="21" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4258,19 +4282,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:E15" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:E14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A3:E15" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A3:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Jour de sprint" totalsRowLabel="Résultat" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Courbe idéale" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Jour de sprint" totalsRowLabel="Résultat" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" name="Courbe idéale" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Courbe réelle" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SP finis" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="4" name="Courbe réelle" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="SP finis" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</calculatedColumnFormula>
       <totalsRowFormula>SUMIFS(Tabelle2[SP finis],Tabelle2[SP finis],"&lt;&gt;#NV")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Aktuell" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="5" name="Aktuell" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4574,25 +4598,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
-    <col min="15" max="44" width="10.8984375" style="30"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="15" max="44" width="10.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="98.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -4612,7 +4636,7 @@
       <c r="Q1" s="54"/>
       <c r="R1" s="54"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -4630,13 +4654,13 @@
       <c r="AS2" s="30"/>
       <c r="AT2" s="30"/>
     </row>
-    <row r="3" spans="1:46" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="30"/>
@@ -4649,12 +4673,12 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="34"/>
@@ -4669,20 +4693,20 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="22">
-        <v>43723</v>
+        <v>44739</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="18">
         <f>B5+B6</f>
-        <v>43737</v>
+        <v>44744</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="30"/>
@@ -4694,19 +4718,19 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="23">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="30"/>
@@ -4718,20 +4742,20 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="23">
         <v>0</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="20">
         <f>B8*B9*B10*E6</f>
-        <v>240</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="30"/>
@@ -4743,20 +4767,20 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="21">
         <f>Backlog[[#Totals],[StoryPoints]]</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4768,20 +4792,20 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="24">
         <v>0.8</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="21">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21" t="e">
         <f ca="1">E8-Tabelle2[[#Totals],[SP finis]]</f>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -4793,16 +4817,16 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="25">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="21">
         <f>COUNTIF(Backlog!A6:A158,$B$11)</f>
@@ -4818,20 +4842,20 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="21">
         <f>COUNT(Backlog!G6:G158)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -4843,7 +4867,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="28"/>
@@ -4859,7 +4883,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="28"/>
@@ -4875,7 +4899,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="28"/>
@@ -4891,7 +4915,7 @@
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="28"/>
@@ -4907,7 +4931,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="28"/>
@@ -4923,7 +4947,7 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4939,7 +4963,7 @@
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -4955,7 +4979,7 @@
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -4971,7 +4995,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -4986,9 +5010,9 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -5004,9 +5028,9 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -5022,9 +5046,9 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -5040,9 +5064,9 @@
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -5058,10 +5082,8 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -5076,7 +5098,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -5092,7 +5114,7 @@
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -5108,7 +5130,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -5124,7 +5146,7 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -5140,7 +5162,7 @@
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -5156,7 +5178,7 @@
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -5172,7 +5194,7 @@
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -5188,7 +5210,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -5204,7 +5226,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -5220,9 +5242,9 @@
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -5238,9 +5260,9 @@
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -5256,9 +5278,9 @@
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -5274,9 +5296,9 @@
       <c r="M37" s="30"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -5292,7 +5314,7 @@
       <c r="M38" s="30"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -5308,7 +5330,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -5324,7 +5346,7 @@
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -5340,7 +5362,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -5356,7 +5378,7 @@
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -5372,7 +5394,7 @@
       <c r="M43" s="30"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -5388,7 +5410,7 @@
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -5404,7 +5426,7 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -5420,7 +5442,7 @@
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -5436,7 +5458,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -5452,7 +5474,7 @@
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -5468,7 +5490,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -5484,7 +5506,7 @@
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -5500,7 +5522,7 @@
       <c r="M51" s="30"/>
       <c r="N51" s="30"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -5516,7 +5538,7 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -5532,7 +5554,7 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -5548,7 +5570,7 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -5564,7 +5586,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -5580,7 +5602,7 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -5596,7 +5618,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -5629,33 +5651,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="54.8984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" customWidth="1"/>
-    <col min="10" max="37" width="10.8984375" style="30"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="37" width="10.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="15">
         <f>'Vue d''ensemble'!$B$5</f>
-        <v>43723</v>
+        <v>44739</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -5664,14 +5686,14 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16">
         <f>'Vue d''ensemble'!E6</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5680,13 +5702,13 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="17">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -5695,7 +5717,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5706,33 +5728,33 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -5763,7 +5785,7 @@
       <c r="AJ5" s="39"/>
       <c r="AK5" s="39"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -5771,30 +5793,30 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14">
+        <v>44739</v>
+      </c>
+      <c r="H6" s="3">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43724</v>
-      </c>
-      <c r="H6" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>1</v>
-      </c>
       <c r="I6" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
         <v>y</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -5802,91 +5824,85 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="14">
-        <v>43730</v>
+        <v>44739</v>
       </c>
       <c r="H7" s="3">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
         <v>y</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="14">
-        <v>43726</v>
-      </c>
-      <c r="H8" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>3</v>
+      <c r="G8" s="14"/>
+      <c r="H8" s="3" t="str">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
+        <v/>
       </c>
       <c r="I8" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="14">
-        <v>43724</v>
-      </c>
-      <c r="H9" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>1</v>
+      <c r="G9" s="14"/>
+      <c r="H9" s="3" t="str">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
+        <v/>
       </c>
       <c r="I9" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>13</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5900,88 +5916,76 @@
         <v>n</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="14">
-        <v>43728</v>
-      </c>
-      <c r="H11" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>5</v>
+      <c r="G11" s="14"/>
+      <c r="H11" s="3" t="str">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
+        <v/>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="14">
-        <v>43724</v>
-      </c>
-      <c r="H12" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>1</v>
+      <c r="G12" s="14"/>
+      <c r="H12" s="3" t="str">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="40">
-        <v>43729</v>
-      </c>
-      <c r="H13" s="3">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
-        <v>6</v>
+      <c r="G13" s="40"/>
+      <c r="H13" s="3" t="str">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"",Backlog[[#This Row],[Terminé le ]]-$C$1)</f>
+        <v/>
       </c>
       <c r="I13" s="2" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Terminé le ]]),"n","y")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6036,7 +6040,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6053,7 +6057,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6070,7 +6074,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6087,7 +6091,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6104,7 +6108,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6121,7 +6125,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6138,7 +6142,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6155,7 +6159,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6172,7 +6176,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6189,7 +6193,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6206,7 +6210,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6223,7 +6227,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6240,7 +6244,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6257,7 +6261,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6274,7 +6278,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6291,7 +6295,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6308,7 +6312,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6325,7 +6329,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6342,7 +6346,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6359,7 +6363,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6376,7 +6380,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6393,7 +6397,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6410,7 +6414,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6427,7 +6431,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6444,7 +6448,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6461,7 +6465,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -6478,7 +6482,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -6495,7 +6499,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -6512,7 +6516,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -6529,7 +6533,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6546,7 +6550,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -6563,7 +6567,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -6580,7 +6584,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -6597,7 +6601,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6614,7 +6618,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6631,7 +6635,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6648,7 +6652,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6665,7 +6669,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6682,7 +6686,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6699,7 +6703,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6716,7 +6720,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6733,7 +6737,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6750,7 +6754,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6767,7 +6771,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6784,7 +6788,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6801,7 +6805,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6818,7 +6822,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6835,7 +6839,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6852,7 +6856,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6869,7 +6873,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6886,7 +6890,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6903,7 +6907,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6920,7 +6924,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6937,7 +6941,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6954,7 +6958,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6971,7 +6975,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6988,7 +6992,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7005,7 +7009,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7039,7 +7043,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7056,7 +7060,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7073,7 +7077,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7090,7 +7094,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7107,7 +7111,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7124,7 +7128,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7141,7 +7145,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7158,7 +7162,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7175,7 +7179,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7192,7 +7196,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7209,7 +7213,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7226,7 +7230,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7243,7 +7247,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7260,7 +7264,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7277,7 +7281,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7294,7 +7298,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7311,7 +7315,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7328,7 +7332,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7345,7 +7349,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7362,7 +7366,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7379,7 +7383,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7396,7 +7400,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7413,7 +7417,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7430,7 +7434,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7447,7 +7451,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7464,7 +7468,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7481,7 +7485,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7498,7 +7502,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7515,7 +7519,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7532,7 +7536,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7549,7 +7553,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7566,7 +7570,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7583,7 +7587,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7600,7 +7604,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7617,7 +7621,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7634,7 +7638,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7651,7 +7655,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7668,7 +7672,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7685,7 +7689,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7702,7 +7706,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7719,7 +7723,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7736,7 +7740,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7753,7 +7757,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7770,7 +7774,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7787,7 +7791,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7804,7 +7808,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7821,7 +7825,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7838,7 +7842,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7855,7 +7859,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7872,7 +7876,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7889,7 +7893,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7906,7 +7910,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7923,7 +7927,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7940,7 +7944,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7957,7 +7961,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7974,7 +7978,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7991,7 +7995,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8008,7 +8012,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8025,7 +8029,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8042,7 +8046,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8059,7 +8063,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8076,7 +8080,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8093,7 +8097,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8110,7 +8114,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8127,7 +8131,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8144,7 +8148,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8161,7 +8165,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8178,7 +8182,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8195,7 +8199,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8212,7 +8216,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8229,7 +8233,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8246,7 +8250,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8263,7 +8267,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8280,7 +8284,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8297,7 +8301,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8314,7 +8318,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8331,7 +8335,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8348,7 +8352,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8365,7 +8369,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8382,7 +8386,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8399,7 +8403,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8416,7 +8420,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8433,7 +8437,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8450,7 +8454,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8467,14 +8471,14 @@
         <v>n</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B160" s="41"/>
       <c r="C160" s="41">
         <f>SUBTOTAL(109,Backlog[StoryPoints])</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="41"/>
@@ -8483,7 +8487,7 @@
       <c r="H160" s="45"/>
       <c r="I160" s="45"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -8494,7 +8498,7 @@
       <c r="H161" s="30"/>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -8505,7 +8509,7 @@
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -8516,7 +8520,7 @@
       <c r="H163" s="30"/>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -8527,7 +8531,7 @@
       <c r="H164" s="30"/>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -8538,7 +8542,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="46"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -8549,7 +8553,7 @@
       <c r="H166" s="46"/>
       <c r="I166" s="46"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -8560,7 +8564,7 @@
       <c r="H167" s="46"/>
       <c r="I167" s="46"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -8571,7 +8575,7 @@
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -8582,7 +8586,7 @@
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -8593,7 +8597,7 @@
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="30"/>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -8604,7 +8608,7 @@
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -8615,7 +8619,7 @@
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -8626,7 +8630,7 @@
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -8637,7 +8641,7 @@
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="30"/>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -8648,7 +8652,7 @@
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -8659,7 +8663,7 @@
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
@@ -8670,7 +8674,7 @@
       <c r="H177" s="30"/>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
@@ -8681,7 +8685,7 @@
       <c r="H178" s="30"/>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
@@ -8692,7 +8696,7 @@
       <c r="H179" s="30"/>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
@@ -8703,7 +8707,7 @@
       <c r="H180" s="30"/>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
@@ -8714,7 +8718,7 @@
       <c r="H181" s="30"/>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
@@ -8725,7 +8729,7 @@
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
@@ -8736,7 +8740,7 @@
       <c r="H183" s="30"/>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -8747,7 +8751,7 @@
       <c r="H184" s="30"/>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -8758,7 +8762,7 @@
       <c r="H185" s="30"/>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -8769,7 +8773,7 @@
       <c r="H186" s="30"/>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -8780,7 +8784,7 @@
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -8791,7 +8795,7 @@
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -8802,7 +8806,7 @@
       <c r="H189" s="30"/>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
@@ -8813,7 +8817,7 @@
       <c r="H190" s="30"/>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
@@ -8824,7 +8828,7 @@
       <c r="H191" s="30"/>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -8835,7 +8839,7 @@
       <c r="H192" s="30"/>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
@@ -8846,7 +8850,7 @@
       <c r="H193" s="30"/>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
@@ -8857,7 +8861,7 @@
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
@@ -8868,7 +8872,7 @@
       <c r="H195" s="30"/>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -8879,7 +8883,7 @@
       <c r="H196" s="30"/>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -8890,7 +8894,7 @@
       <c r="H197" s="30"/>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="30"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -8901,22 +8905,22 @@
       <c r="H198" s="30"/>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H199" s="30"/>
       <c r="I199" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>43723</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158 B5 B161:B1048576 B1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158 B5 B161:B1048576 B1">
       <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Doppelte ID" error="DIe ID wurde bereits vergeben" sqref="B8:B157" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Doppelte ID" error="DIe ID wurde bereits vergeben" sqref="B8:B157">
       <formula1>COUNTIF($B:$B,B5)=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Doppelte ID" error="DIe ID wurde bereits vergeben" sqref="B6:B7" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Doppelte ID" error="DIe ID wurde bereits vergeben" sqref="B6:B7">
       <formula1>COUNTIF($B:$B,B1)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -8928,13 +8932,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Vue d''ensemble'!$A$22:$A$31</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Vue d''ensemble'!$A$36:$A$38</xm:f>
           </x14:formula1>
@@ -8947,402 +8951,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="13"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <f>Backlog[[#Totals],[StoryPoints]]</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
         <v>y</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>55.8</v>
+        <v>3.2</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">C4-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
         <v>y</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>49.6</v>
-      </c>
-      <c r="C6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="2" t="e">
         <f ca="1">C5-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>42</v>
-      </c>
-      <c r="D6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>43.4</v>
-      </c>
-      <c r="C7" s="2">
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="C7" s="2" t="e">
         <f ca="1">C6-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>39</v>
-      </c>
-      <c r="D7" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C8" s="2">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="C8" s="2" t="e">
         <f ca="1">C7-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>39</v>
-      </c>
-      <c r="D8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>31</v>
-      </c>
-      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="e">
         <f ca="1">C8-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="E9" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>24.799999999999997</v>
-      </c>
-      <c r="C10" s="2">
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="C10" s="2" t="e">
         <f ca="1">C9-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="E10" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C11" s="2">
+        <v>-1.6000000000000005</v>
+      </c>
+      <c r="C11" s="2" t="e">
         <f ca="1">C10-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>8</v>
+        <v>#N/A</v>
       </c>
       <c r="E11" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>12.399999999999999</v>
-      </c>
-      <c r="C12" s="2">
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="C12" s="2" t="e">
         <f ca="1">C11-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E12" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>6.1999999999999957</v>
-      </c>
-      <c r="C13" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="C13" s="2" t="e">
         <f ca="1">C12-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E13" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <f>Backlog[[#Totals],[StoryPoints]]-(Backlog[[#Totals],[StoryPoints]]/'Vue d''ensemble'!$E$6*Tabelle2[[#This Row],[Jour de sprint]])</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C14" s="2" t="e">
         <f ca="1">C13-Tabelle2[[#This Row],[SP finis]]</f>
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="2" t="e">
         <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Jour de sprint],Tabelle2[[#This Row],[Jour de sprint]],Backlog[StoryPoints]),#N/A)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E14" s="2" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Jour de sprint]],"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="e">
         <f ca="1">SUMIFS(Tabelle2[SP finis],Tabelle2[SP finis],"&lt;&gt;#NV")</f>
-        <v>49</v>
+        <v>#N/A</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">SUBTOTAL(103,Tabelle2[Aktuell])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="33"/>
       <c r="C16" s="28"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="33"/>
       <c r="C17" s="28"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="33"/>
       <c r="C18" s="28"/>
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
     </row>
-    <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
       <c r="C19" s="28"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
       <c r="C20" s="28"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
     </row>
-    <row r="21" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
       <c r="C21" s="28"/>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
       <c r="C22" s="28"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
       <c r="C23" s="28"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
     </row>
-    <row r="36" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
     </row>
-    <row r="37" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
     </row>
-    <row r="38" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="43"/>
     </row>
-    <row r="39" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
     </row>
-    <row r="40" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="43"/>
     </row>
-    <row r="41" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="33"/>
     </row>
-    <row r="42" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
     </row>
-    <row r="43" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
     </row>
-    <row r="44" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
     </row>
-    <row r="45" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
     </row>
-    <row r="46" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
     </row>
   </sheetData>
